--- a/Library/HighPriorityBugExcel/excelResultHighPriorityBugV2.1.11_K.xlsx
+++ b/Library/HighPriorityBugExcel/excelResultHighPriorityBugV2.1.11_K.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\HighPriorityBugExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationNew\AutomationTest\Library\HighPriorityBugExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28200" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="28200" yWindow="0" windowWidth="13905" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="77">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Puskar</t>
+  </si>
+  <si>
+    <t>changed the fiscal year and add some assertion</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +345,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,22 +628,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="103.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -665,7 +670,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,7 +690,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -709,7 +714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -729,7 +734,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -753,7 +758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -778,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -800,7 +805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -820,7 +825,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -842,7 +847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -864,7 +869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -884,7 +889,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -904,7 +909,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -924,7 +929,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -944,7 +949,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -964,7 +969,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -984,7 +989,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1006,7 +1011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1097,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1112,7 +1117,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1129,12 +1134,17 @@
         <v>30</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1151,12 +1161,17 @@
         <v>32</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1198,7 +1213,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1220,7 +1235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -1240,7 +1255,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1284,7 +1299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -1304,7 +1319,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
@@ -1346,7 +1361,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -1368,7 +1383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
@@ -1410,7 +1425,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -1454,7 +1469,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
@@ -1540,7 +1555,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>65</v>
       </c>
@@ -1584,7 +1599,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>67</v>
       </c>
@@ -1626,7 +1641,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
@@ -1670,7 +1685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>

--- a/Library/HighPriorityBugExcel/excelResultHighPriorityBugV2.1.11_K.xlsx
+++ b/Library/HighPriorityBugExcel/excelResultHighPriorityBugV2.1.11_K.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="77">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,9 @@
         <v>34</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>75</v>
       </c>
@@ -1442,7 +1444,9 @@
         <v>34</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>75</v>
       </c>
@@ -1464,7 +1468,9 @@
         <v>10</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>75</v>
       </c>
@@ -1486,7 +1492,9 @@
         <v>13</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1508,7 +1516,9 @@
         <v>15</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H40" s="2" t="s">
         <v>75</v>
       </c>
@@ -1530,7 +1540,9 @@
         <v>17</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="H41" s="2" t="s">
         <v>75</v>
       </c>
